--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
   <si>
     <t/>
   </si>
@@ -51,6 +51,75 @@
   </si>
   <si>
     <t>//button[normalize-space()='Login']</t>
+  </si>
+  <si>
+    <t>ClickUser</t>
+  </si>
+  <si>
+    <t>//div[@class='side-menu__title '][normalize-space()='User']</t>
+  </si>
+  <si>
+    <t>ClickUserList</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'side-menu__title')][normalize-space()='User List']</t>
+  </si>
+  <si>
+    <t>ClickAddNewUserButton</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[2]/div[2]/div[4]/button</t>
+  </si>
+  <si>
+    <t>AddUser_Name</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Saman Perera']</t>
+  </si>
+  <si>
+    <t>AddUser_Role</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Manager']</t>
+  </si>
+  <si>
+    <t>AddUser_ContactNo</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='71 234 5678']</t>
+  </si>
+  <si>
+    <t>AddUser_Email</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='name@gmail.com']</t>
+  </si>
+  <si>
+    <t>AddUser_Password</t>
+  </si>
+  <si>
+    <t>(//input[@placeholder='xxxxxxxx'])[1]</t>
+  </si>
+  <si>
+    <t>AddUser_ConfirmPassword</t>
+  </si>
+  <si>
+    <t>(//input[contains(@placeholder,'xxxxxxxx')])[2]</t>
+  </si>
+  <si>
+    <t>AddUser_Address</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='No. 123, Main Street, Colombo 05']</t>
+  </si>
+  <si>
+    <t>AddUser_SaveButton</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Save']</t>
+  </si>
+  <si>
+    <t>AddUser_ToastMessage</t>
   </si>
 </sst>
 </file>
@@ -95,7 +164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -169,24 +238,134 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>0</v>
+      <c r="C18" t="s" s="0">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="44">
   <si>
     <t/>
   </si>
@@ -120,6 +120,30 @@
   </si>
   <si>
     <t>AddUser_ToastMessage</t>
+  </si>
+  <si>
+    <t>SearchUser_SearchByDropdown</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[2]/div[1]/div[1]/div[1]/select</t>
+  </si>
+  <si>
+    <t>SearchUser_SearchBar</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Search...']</t>
+  </si>
+  <si>
+    <t>SearchUser_SearchButton</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[2]/div[1]/div[1]/div[2]/button</t>
+  </si>
+  <si>
+    <t>SearchUser_Result</t>
+  </si>
+  <si>
+    <t>//td[normalize-space()='Kasun Bandara']</t>
   </si>
 </sst>
 </file>
@@ -164,7 +188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -368,6 +392,83 @@
         <v>6</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="46">
   <si>
     <t/>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>//td[normalize-space()='Kasun Bandara']</t>
+  </si>
+  <si>
+    <t>SearchUser_Result2</t>
+  </si>
+  <si>
+    <t>//td[normalize-space()='Admin']</t>
   </si>
 </sst>
 </file>
@@ -449,13 +455,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="48">
   <si>
     <t/>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>//td[normalize-space()='Admin']</t>
+  </si>
+  <si>
+    <t>SearchUser_Result3</t>
+  </si>
+  <si>
+    <t>//td[normalize-space()='kasun@gmail.com']</t>
   </si>
 </sst>
 </file>
@@ -466,13 +472,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="50">
   <si>
     <t/>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>//td[normalize-space()='kasun@gmail.com']</t>
+  </si>
+  <si>
+    <t>SearchUser_Result4</t>
+  </si>
+  <si>
+    <t>//td[normalize-space()='Dewalegama,Kegalle']</t>
   </si>
 </sst>
 </file>
@@ -200,7 +206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -481,6 +487,61 @@
         <v>6</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="54">
   <si>
     <t/>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>//td[normalize-space()='Dewalegama,Kegalle']</t>
+  </si>
+  <si>
+    <t>EditUser_Action</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[3]/div/table/tbody/tr[4]/td[6]/div/button[1]</t>
+  </si>
+  <si>
+    <t>EditUser_UpdateButton</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Update']</t>
   </si>
 </sst>
 </file>
@@ -500,24 +512,24 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="63">
   <si>
     <t/>
   </si>
@@ -174,6 +174,33 @@
   </si>
   <si>
     <t>//button[normalize-space()='Update']</t>
+  </si>
+  <si>
+    <t>EditUser_ToastMessage</t>
+  </si>
+  <si>
+    <t>UserChangePassword_Action</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[3]/div/table/tbody/tr[3]/td[6]/div/button[2]</t>
+  </si>
+  <si>
+    <t>User_NewPassword</t>
+  </si>
+  <si>
+    <t>User_ConfirmPassword</t>
+  </si>
+  <si>
+    <t>(//input[@placeholder='xxxxxxxx'])[2]</t>
+  </si>
+  <si>
+    <t>User_PasswordResetButton</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Reset']</t>
+  </si>
+  <si>
+    <t>ChangePassword_ToastMessage</t>
   </si>
 </sst>
 </file>
@@ -218,7 +245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -512,21 +539,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>6</v>
@@ -534,23 +561,133 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s" s="0">
         <v>0</v>
       </c>
       <c r="C30" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="65">
   <si>
     <t/>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>ChangePassword_ToastMessage</t>
+  </si>
+  <si>
+    <t>UserPageSizeDropdown</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='10']</t>
   </si>
 </sst>
 </file>
@@ -660,13 +666,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="80">
   <si>
     <t/>
   </si>
@@ -26,15 +26,21 @@
     <t>Method</t>
   </si>
   <si>
+    <t>ToastMessage</t>
+  </si>
+  <si>
+    <t>//*[@id="notification-content"]/div/div/div[2]</t>
+  </si>
+  <si>
+    <t>By.xpath</t>
+  </si>
+  <si>
     <t>Login_BusinessNameField</t>
   </si>
   <si>
     <t>//input[@placeholder='Enter Business Name']</t>
   </si>
   <si>
-    <t>By.xpath</t>
-  </si>
-  <si>
     <t>Login_EmailAddressField</t>
   </si>
   <si>
@@ -119,9 +125,6 @@
     <t>//button[normalize-space()='Save']</t>
   </si>
   <si>
-    <t>AddUser_ToastMessage</t>
-  </si>
-  <si>
     <t>SearchUser_SearchByDropdown</t>
   </si>
   <si>
@@ -176,9 +179,6 @@
     <t>//button[normalize-space()='Update']</t>
   </si>
   <si>
-    <t>EditUser_ToastMessage</t>
-  </si>
-  <si>
     <t>UserChangePassword_Action</t>
   </si>
   <si>
@@ -200,13 +200,58 @@
     <t>//button[normalize-space()='Reset']</t>
   </si>
   <si>
-    <t>ChangePassword_ToastMessage</t>
-  </si>
-  <si>
     <t>UserPageSizeDropdown</t>
   </si>
   <si>
     <t>//button[normalize-space()='10']</t>
+  </si>
+  <si>
+    <t>ClickContacts</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/nav/ul[2]/li[3]/a/div[2]</t>
+  </si>
+  <si>
+    <t>Contacts_ContactName</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Saman Bandara']</t>
+  </si>
+  <si>
+    <t>Contacts_ReferenceID</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='CU0001']</t>
+  </si>
+  <si>
+    <t>Contacts_ContactNo1</t>
+  </si>
+  <si>
+    <t>Contacts_ContactNo2</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='81 234 5678']</t>
+  </si>
+  <si>
+    <t>Contacts_ShippingAddress</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='No 12/6, Wallawatta, Colombo.']</t>
+  </si>
+  <si>
+    <t>Contacts_City</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Select a city']</t>
+  </si>
+  <si>
+    <t>Contacts_Email</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='example@email.com']</t>
+  </si>
+  <si>
+    <t>AddContact_SaveButton</t>
   </si>
 </sst>
 </file>
@@ -251,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -281,21 +326,21 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>6</v>
@@ -303,10 +348,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>6</v>
@@ -314,13 +359,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -336,21 +381,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>6</v>
@@ -358,10 +403,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>6</v>
@@ -369,10 +414,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>6</v>
@@ -380,10 +425,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>6</v>
@@ -391,10 +436,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>6</v>
@@ -402,10 +447,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>6</v>
@@ -413,10 +458,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>6</v>
@@ -424,10 +469,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>6</v>
@@ -435,10 +480,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>6</v>
@@ -446,10 +491,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>6</v>
@@ -457,32 +502,32 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>38</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>39</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>6</v>
@@ -490,10 +535,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>40</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>41</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>6</v>
@@ -501,10 +546,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>42</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>43</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>6</v>
@@ -512,10 +557,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>45</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>6</v>
@@ -523,10 +568,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s" s="0">
         <v>46</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>47</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>6</v>
@@ -534,10 +579,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>48</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>49</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>6</v>
@@ -545,32 +590,32 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s" s="0">
         <v>52</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>53</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>6</v>
@@ -578,10 +623,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>0</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
@@ -614,7 +659,7 @@
         <v>57</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>6</v>
@@ -644,56 +689,188 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>0</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="82">
   <si>
     <t/>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>//*[@id="root"]/div[1]/div/div[2]/nav/ul[2]/li[3]/a/div[2]</t>
+  </si>
+  <si>
+    <t>ClickAddNewCustomer</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[2]/div[2]/div[4]/button/span</t>
   </si>
   <si>
     <t>Contacts_ContactName</t>
@@ -296,7 +302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -758,7 +764,7 @@
         <v>70</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>6</v>
@@ -766,10 +772,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
@@ -813,7 +819,7 @@
         <v>79</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>6</v>
@@ -821,13 +827,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -871,6 +877,17 @@
         <v>0</v>
       </c>
       <c r="C52" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="84">
   <si>
     <t/>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[2]/div[2]/div[4]/button/span</t>
+  </si>
+  <si>
+    <t>EditContacts_Action</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[3]/div/table/tbody/tr[2]/td[6]/div/button[1]</t>
   </si>
   <si>
     <t>Contacts_ContactName</t>
@@ -302,7 +308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -775,7 +781,7 @@
         <v>72</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
@@ -783,10 +789,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
@@ -830,7 +836,7 @@
         <v>81</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>6</v>
@@ -838,13 +844,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -888,6 +894,17 @@
         <v>0</v>
       </c>
       <c r="C53" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="98">
   <si>
     <t/>
   </si>
@@ -264,6 +264,48 @@
   </si>
   <si>
     <t>AddContact_SaveButton</t>
+  </si>
+  <si>
+    <t>SearchContact_SearchByDropdown</t>
+  </si>
+  <si>
+    <t>SearchContact_SearchBar</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[2]/div[1]/div[1]/div[2]/input</t>
+  </si>
+  <si>
+    <t>SearchContact_SearchButton</t>
+  </si>
+  <si>
+    <t>SearchContact_Result</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[3]/div/table/tbody/tr[1]/td[1]</t>
+  </si>
+  <si>
+    <t>SearchContact_Result1</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[3]/div/table/tbody/tr[1]/td[2]</t>
+  </si>
+  <si>
+    <t>SearchContact_Result2</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[3]/div/table/tbody/tr[1]/td[4]</t>
+  </si>
+  <si>
+    <t>SearchContact_Result3</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[3]/div/table/tbody/tr[1]/td[3]</t>
+  </si>
+  <si>
+    <t>SearchContact_Result4</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[3]/div/table/tbody/tr[1]/td[6]</t>
   </si>
 </sst>
 </file>
@@ -308,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -866,45 +908,144 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="108">
   <si>
     <t/>
   </si>
@@ -306,6 +306,36 @@
   </si>
   <si>
     <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[3]/div/table/tbody/tr[1]/td[6]</t>
+  </si>
+  <si>
+    <t>ClickProducts</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/nav/ul[2]/li[4]/a/div[1]</t>
+  </si>
+  <si>
+    <t>ClickCategories</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/nav/ul[2]/li[4]/ul/li[4]/a/div[2]</t>
+  </si>
+  <si>
+    <t>ClickAddNewCategory</t>
+  </si>
+  <si>
+    <t>Category_Name</t>
+  </si>
+  <si>
+    <t>//input[@id=//label[@for='categoryName']/@for]</t>
+  </si>
+  <si>
+    <t>Category_Remark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//textarea[@id=//label[normalize-space()='Remark']/@for] </t>
+  </si>
+  <si>
+    <t>Category_SaveButton</t>
   </si>
 </sst>
 </file>
@@ -350,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1007,45 +1037,122 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="C63" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="87">
   <si>
     <t/>
   </si>
@@ -26,31 +26,31 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Login_BusinessNameField</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Enter Business Name']</t>
+  </si>
+  <si>
+    <t>By.xpath</t>
+  </si>
+  <si>
+    <t>Login_EmailAddressField</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Enter Email']</t>
+  </si>
+  <si>
+    <t>Login_PasswordField</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Enter Password']</t>
+  </si>
+  <si>
     <t>ToastMessage</t>
   </si>
   <si>
-    <t>//*[@id="notification-content"]/div/div/div[2]</t>
-  </si>
-  <si>
-    <t>By.xpath</t>
-  </si>
-  <si>
-    <t>Login_BusinessNameField</t>
-  </si>
-  <si>
-    <t>//input[@placeholder='Enter Business Name']</t>
-  </si>
-  <si>
-    <t>Login_EmailAddressField</t>
-  </si>
-  <si>
-    <t>//input[@placeholder='Enter Email']</t>
-  </si>
-  <si>
-    <t>Login_PasswordField</t>
-  </si>
-  <si>
-    <t>//input[@placeholder='Enter Password']</t>
+    <t>//div[@class='ml-4 mr-4']//child::div</t>
   </si>
   <si>
     <t>LoginButton</t>
@@ -59,6 +59,72 @@
     <t>//button[normalize-space()='Login']</t>
   </si>
   <si>
+    <t>SaveButton</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Save']</t>
+  </si>
+  <si>
+    <t>ClearButton</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Clear']</t>
+  </si>
+  <si>
+    <t>UpdateButton</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Update']</t>
+  </si>
+  <si>
+    <t>CloseButton</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Close']</t>
+  </si>
+  <si>
+    <t>ResetButton</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Reset']</t>
+  </si>
+  <si>
+    <t>Action1</t>
+  </si>
+  <si>
+    <t>//tr[1]/td[last()]//child::button[1]</t>
+  </si>
+  <si>
+    <t>Action2</t>
+  </si>
+  <si>
+    <t>//tr[1]/td[last()]//child::button[2]</t>
+  </si>
+  <si>
+    <t>Action3</t>
+  </si>
+  <si>
+    <t>//tr[1]/td[last()]//child::button[3]</t>
+  </si>
+  <si>
+    <t>SearchBy_Dropdown</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Search by')]//parent::div//child::select</t>
+  </si>
+  <si>
+    <t>SearchBy_SearchBar</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Search by')]//parent::div//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>SearchBy_SearchButton</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Search by')]//parent::div//parent::div//child::button</t>
+  </si>
+  <si>
     <t>ClickUser</t>
   </si>
   <si>
@@ -71,271 +137,142 @@
     <t>//div[contains(@class,'side-menu__title')][normalize-space()='User List']</t>
   </si>
   <si>
+    <t>ClickContacts</t>
+  </si>
+  <si>
+    <t>//div[@class='side-menu__title '][normalize-space()='Contacts']</t>
+  </si>
+  <si>
+    <t>ClickProducts</t>
+  </si>
+  <si>
+    <t>//div[@class='side-menu__title '][normalize-space()='Products']</t>
+  </si>
+  <si>
+    <t>ClickCategories</t>
+  </si>
+  <si>
+    <t>//div[@class='side-menu__title'][normalize-space()='Categories']</t>
+  </si>
+  <si>
     <t>ClickAddNewUserButton</t>
   </si>
   <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[2]/div[2]/div[4]/button</t>
+    <t>//span[contains(.,'Add New User')]//parent::button</t>
   </si>
   <si>
     <t>AddUser_Name</t>
   </si>
   <si>
-    <t>//input[@placeholder='Saman Perera']</t>
+    <t>//span[contains(text(),'Name')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
     <t>AddUser_Role</t>
   </si>
   <si>
-    <t>//input[@placeholder='Manager']</t>
+    <t>//span[contains(text(),'Role')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
     <t>AddUser_ContactNo</t>
   </si>
   <si>
-    <t>//input[@placeholder='71 234 5678']</t>
+    <t>//span[contains(text(),'Contact No')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
     <t>AddUser_Email</t>
   </si>
   <si>
-    <t>//input[@placeholder='name@gmail.com']</t>
+    <t>//span[contains(text(),'Email')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
     <t>AddUser_Password</t>
   </si>
   <si>
-    <t>(//input[@placeholder='xxxxxxxx'])[1]</t>
+    <t>//span[contains(text(),'Password')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
     <t>AddUser_ConfirmPassword</t>
   </si>
   <si>
-    <t>(//input[contains(@placeholder,'xxxxxxxx')])[2]</t>
+    <t>//span[contains(text(),'Confirm Password')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
     <t>AddUser_Address</t>
   </si>
   <si>
-    <t>//input[@placeholder='No. 123, Main Street, Colombo 05']</t>
-  </si>
-  <si>
-    <t>AddUser_SaveButton</t>
-  </si>
-  <si>
-    <t>//button[normalize-space()='Save']</t>
-  </si>
-  <si>
-    <t>SearchUser_SearchByDropdown</t>
-  </si>
-  <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[2]/div[1]/div[1]/div[1]/select</t>
-  </si>
-  <si>
-    <t>SearchUser_SearchBar</t>
-  </si>
-  <si>
-    <t>//input[@placeholder='Search...']</t>
-  </si>
-  <si>
-    <t>SearchUser_SearchButton</t>
-  </si>
-  <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[2]/div[1]/div[1]/div[2]/button</t>
-  </si>
-  <si>
-    <t>SearchUser_Result</t>
-  </si>
-  <si>
-    <t>//td[normalize-space()='Kasun Bandara']</t>
-  </si>
-  <si>
-    <t>SearchUser_Result2</t>
-  </si>
-  <si>
-    <t>//td[normalize-space()='Admin']</t>
-  </si>
-  <si>
-    <t>SearchUser_Result3</t>
-  </si>
-  <si>
-    <t>//td[normalize-space()='kasun@gmail.com']</t>
-  </si>
-  <si>
-    <t>SearchUser_Result4</t>
-  </si>
-  <si>
-    <t>//td[normalize-space()='Dewalegama,Kegalle']</t>
-  </si>
-  <si>
-    <t>EditUser_Action</t>
-  </si>
-  <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[3]/div/table/tbody/tr[4]/td[6]/div/button[1]</t>
-  </si>
-  <si>
-    <t>EditUser_UpdateButton</t>
-  </si>
-  <si>
-    <t>//button[normalize-space()='Update']</t>
-  </si>
-  <si>
-    <t>UserChangePassword_Action</t>
-  </si>
-  <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[3]/div/table/tbody/tr[3]/td[6]/div/button[2]</t>
+    <t>//span[contains(text(),'Address')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
     <t>User_NewPassword</t>
   </si>
   <si>
+    <t>//span[contains(text(),'New Password')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
     <t>User_ConfirmPassword</t>
   </si>
   <si>
-    <t>(//input[@placeholder='xxxxxxxx'])[2]</t>
-  </si>
-  <si>
-    <t>User_PasswordResetButton</t>
-  </si>
-  <si>
-    <t>//button[normalize-space()='Reset']</t>
-  </si>
-  <si>
-    <t>UserPageSizeDropdown</t>
-  </si>
-  <si>
-    <t>//button[normalize-space()='10']</t>
-  </si>
-  <si>
-    <t>ClickContacts</t>
-  </si>
-  <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/nav/ul[2]/li[3]/a/div[2]</t>
-  </si>
-  <si>
     <t>ClickAddNewCustomer</t>
   </si>
   <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[2]/div[2]/div[4]/button/span</t>
-  </si>
-  <si>
-    <t>EditContacts_Action</t>
-  </si>
-  <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[3]/div/table/tbody/tr[2]/td[6]/div/button[1]</t>
+    <t>//span[contains(.,'Add New Customer')]//parent::button</t>
   </si>
   <si>
     <t>Contacts_ContactName</t>
   </si>
   <si>
-    <t>//input[@placeholder='Saman Bandara']</t>
+    <t>//span[contains(text(),'Contact Name')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
     <t>Contacts_ReferenceID</t>
   </si>
   <si>
-    <t>//input[@placeholder='CU0001']</t>
+    <t>//span[contains(text(),'Rerence ID')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
     <t>Contacts_ContactNo1</t>
   </si>
   <si>
+    <t>//span[contains(text(),'Contact No.1')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
     <t>Contacts_ContactNo2</t>
   </si>
   <si>
-    <t>//input[@placeholder='81 234 5678']</t>
+    <t>//span[contains(text(),'Contact No.2')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
     <t>Contacts_ShippingAddress</t>
   </si>
   <si>
-    <t>//input[@placeholder='No 12/6, Wallawatta, Colombo.']</t>
+    <t>//span[contains(text(),'Shipping Address')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
     <t>Contacts_City</t>
   </si>
   <si>
-    <t>//input[@placeholder='Select a city']</t>
+    <t>//span[contains(text(),'City')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
     <t>Contacts_Email</t>
   </si>
   <si>
-    <t>//input[@placeholder='example@email.com']</t>
-  </si>
-  <si>
-    <t>AddContact_SaveButton</t>
-  </si>
-  <si>
-    <t>SearchContact_SearchByDropdown</t>
-  </si>
-  <si>
-    <t>SearchContact_SearchBar</t>
-  </si>
-  <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[2]/div[1]/div[1]/div[2]/input</t>
-  </si>
-  <si>
-    <t>SearchContact_SearchButton</t>
-  </si>
-  <si>
-    <t>SearchContact_Result</t>
-  </si>
-  <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[3]/div/table/tbody/tr[1]/td[1]</t>
-  </si>
-  <si>
-    <t>SearchContact_Result1</t>
-  </si>
-  <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[3]/div/table/tbody/tr[1]/td[2]</t>
-  </si>
-  <si>
-    <t>SearchContact_Result2</t>
-  </si>
-  <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[3]/div/table/tbody/tr[1]/td[4]</t>
-  </si>
-  <si>
-    <t>SearchContact_Result3</t>
-  </si>
-  <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[3]/div/table/tbody/tr[1]/td[3]</t>
-  </si>
-  <si>
-    <t>SearchContact_Result4</t>
-  </si>
-  <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[3]/div/table/tbody/tr[1]/td[6]</t>
-  </si>
-  <si>
-    <t>ClickProducts</t>
-  </si>
-  <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/nav/ul[2]/li[4]/a/div[1]</t>
-  </si>
-  <si>
-    <t>ClickCategories</t>
-  </si>
-  <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/nav/ul[2]/li[4]/ul/li[4]/a/div[2]</t>
-  </si>
-  <si>
     <t>ClickAddNewCategory</t>
   </si>
   <si>
+    <t>//span[contains(.,'Add New Category')]//parent::button</t>
+  </si>
+  <si>
     <t>Category_Name</t>
   </si>
   <si>
-    <t>//input[@id=//label[@for='categoryName']/@for]</t>
+    <t>//input[@id='categoryName']</t>
   </si>
   <si>
     <t>Category_Remark</t>
   </si>
   <si>
-    <t xml:space="preserve">//textarea[@id=//label[normalize-space()='Remark']/@for] </t>
-  </si>
-  <si>
-    <t>Category_SaveButton</t>
+    <t>//textarea[@id='shortName']</t>
   </si>
 </sst>
 </file>
@@ -380,7 +317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -410,21 +347,21 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>6</v>
@@ -432,13 +369,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -454,24 +391,24 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -531,21 +468,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>6</v>
@@ -553,10 +490,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>6</v>
@@ -564,10 +501,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>6</v>
@@ -575,21 +512,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>6</v>
@@ -597,21 +534,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>6</v>
@@ -619,21 +556,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>6</v>
@@ -641,10 +578,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>6</v>
@@ -652,10 +589,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>6</v>
@@ -663,10 +600,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>6</v>
@@ -674,10 +611,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>6</v>
@@ -696,10 +633,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>6</v>
@@ -707,10 +644,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
@@ -718,21 +655,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>6</v>
@@ -740,10 +677,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>6</v>
@@ -751,10 +688,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s" s="0">
         <v>58</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>59</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>6</v>
@@ -762,10 +699,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s" s="0">
         <v>60</v>
-      </c>
-      <c r="B35" t="s" s="0">
-        <v>61</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>6</v>
@@ -773,21 +710,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>6</v>
@@ -795,24 +732,24 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -864,7 +801,7 @@
         <v>74</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
@@ -872,10 +809,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>6</v>
@@ -883,10 +820,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>6</v>
@@ -894,10 +831,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>6</v>
@@ -905,21 +842,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>6</v>
@@ -927,21 +864,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
@@ -949,210 +886,23 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="B54" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="C54" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B55" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="C55" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B56" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="C56" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="B57" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="C57" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="B58" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C58" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B59" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="B60" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C60" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="B61" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="C61" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="B62" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="C62" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="B63" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="C63" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="B64" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="C64" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="B65" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="C65" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B66" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C66" t="s" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B67" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C67" t="s" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B68" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B69" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C69" t="s" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B70" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C70" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -50,7 +50,7 @@
     <t>ToastMessage</t>
   </si>
   <si>
-    <t>//div[@class='ml-4 mr-4']//child::div</t>
+    <t>//*[@id="notification-content"]/div/div/div[2]</t>
   </si>
   <si>
     <t>LoginButton</t>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="89">
   <si>
     <t/>
   </si>
@@ -176,7 +176,7 @@
     <t>AddUser_ContactNo</t>
   </si>
   <si>
-    <t>//span[contains(text(),'Contact No')]//parent::label//parent::div//child::input</t>
+    <t>//span[contains(text(),'Contact No.')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
     <t>AddUser_Email</t>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>User_ConfirmPassword</t>
+  </si>
+  <si>
+    <t>UserPageSizeDropdown</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='10']</t>
   </si>
   <si>
     <t>ClickAddNewCustomer</t>
@@ -317,7 +323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -765,21 +771,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>6</v>
@@ -787,10 +793,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
@@ -798,10 +804,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
@@ -809,10 +815,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>6</v>
@@ -820,10 +826,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>6</v>
@@ -831,10 +837,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>6</v>
@@ -842,21 +848,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>6</v>
@@ -864,21 +870,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
@@ -886,23 +892,45 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -176,7 +176,7 @@
     <t>AddUser_ContactNo</t>
   </si>
   <si>
-    <t>//span[contains(text(),'Contact No.')]//parent::label//parent::div//child::input</t>
+    <t>//span[contains(.,'Contact No.')]//parent::label//parent::div//child::input[@type='text']</t>
   </si>
   <si>
     <t>AddUser_Email</t>
@@ -239,13 +239,13 @@
     <t>Contacts_ContactNo1</t>
   </si>
   <si>
-    <t>//span[contains(text(),'Contact No.1')]//parent::label//parent::div//child::input</t>
+    <t>//span[contains(.,'Contact No.1')]//parent::label//parent::div//child::input[@type='text']</t>
   </si>
   <si>
     <t>Contacts_ContactNo2</t>
   </si>
   <si>
-    <t>//span[contains(text(),'Contact No.2')]//parent::label//parent::div//child::input</t>
+    <t>//span[contains(.,'Contact No.2')]//parent::label//parent::div//child::input[@type='text']</t>
   </si>
   <si>
     <t>Contacts_ShippingAddress</t>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="97">
   <si>
     <t/>
   </si>
@@ -155,6 +155,12 @@
     <t>//div[@class='side-menu__title'][normalize-space()='Categories']</t>
   </si>
   <si>
+    <t>ClickBrands</t>
+  </si>
+  <si>
+    <t>//div[@class='side-menu__title'][normalize-space()='Brands']</t>
+  </si>
+  <si>
     <t>ClickAddNewUserButton</t>
   </si>
   <si>
@@ -279,6 +285,24 @@
   </si>
   <si>
     <t>//textarea[@id='shortName']</t>
+  </si>
+  <si>
+    <t>ClickAddNewBrand</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Add New Brand')]//parent::button</t>
+  </si>
+  <si>
+    <t>Brand_Name</t>
+  </si>
+  <si>
+    <t>//*[@id="brandName"]</t>
+  </si>
+  <si>
+    <t>Brand_Remark</t>
+  </si>
+  <si>
+    <t>//*[@id="remark"]</t>
   </si>
 </sst>
 </file>
@@ -323,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -628,24 +652,24 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -741,7 +765,7 @@
         <v>65</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>6</v>
@@ -749,46 +773,46 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +886,7 @@
         <v>82</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>6</v>
@@ -870,24 +894,24 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -914,13 +938,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -931,6 +955,138 @@
         <v>0</v>
       </c>
       <c r="C55" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="96">
   <si>
     <t/>
   </si>
@@ -278,13 +278,13 @@
     <t>Category_Name</t>
   </si>
   <si>
-    <t>//input[@id='categoryName']</t>
+    <t>//label[contains(.,'Category Name')]//parent::div//child::input</t>
   </si>
   <si>
     <t>Category_Remark</t>
   </si>
   <si>
-    <t>//textarea[@id='shortName']</t>
+    <t>//label[contains(.,'Remark')]//parent::div//child::textarea</t>
   </si>
   <si>
     <t>ClickAddNewBrand</t>
@@ -296,13 +296,10 @@
     <t>Brand_Name</t>
   </si>
   <si>
-    <t>//*[@id="brandName"]</t>
+    <t>//label[contains(.,'Brand Name')]//parent::div//child::input</t>
   </si>
   <si>
     <t>Brand_Remark</t>
-  </si>
-  <si>
-    <t>//*[@id="remark"]</t>
   </si>
 </sst>
 </file>
@@ -985,7 +982,7 @@
         <v>95</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>6</v>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="104">
   <si>
     <t/>
   </si>
@@ -161,6 +161,12 @@
     <t>//div[@class='side-menu__title'][normalize-space()='Brands']</t>
   </si>
   <si>
+    <t>ClickUnits</t>
+  </si>
+  <si>
+    <t>//div[@class='side-menu__title'][normalize-space()='Units']</t>
+  </si>
+  <si>
     <t>ClickAddNewUserButton</t>
   </si>
   <si>
@@ -300,6 +306,24 @@
   </si>
   <si>
     <t>Brand_Remark</t>
+  </si>
+  <si>
+    <t>ClickAddNewUnit</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Add New Unit')]//parent::button</t>
+  </si>
+  <si>
+    <t>Unit_Name</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Unit Name')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>Short_Name</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Short Name')]//parent::div//child::input</t>
   </si>
 </sst>
 </file>
@@ -344,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -660,24 +684,24 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -773,7 +797,7 @@
         <v>67</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>6</v>
@@ -781,46 +805,46 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -894,7 +918,7 @@
         <v>84</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>6</v>
@@ -902,24 +926,24 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -946,24 +970,24 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -982,7 +1006,7 @@
         <v>95</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>6</v>
@@ -990,13 +1014,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -1012,35 +1036,35 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -1084,6 +1108,17 @@
         <v>0</v>
       </c>
       <c r="C67" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="106">
   <si>
     <t/>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>//label[contains(.,'Short Name')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>AllowDecimalCheckBox</t>
+  </si>
+  <si>
+    <t>//*[@id="allowDecimal"]</t>
   </si>
 </sst>
 </file>
@@ -1069,13 +1075,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="116">
   <si>
     <t/>
   </si>
@@ -167,6 +167,12 @@
     <t>//div[@class='side-menu__title'][normalize-space()='Units']</t>
   </si>
   <si>
+    <t>ClickProductList</t>
+  </si>
+  <si>
+    <t>//div[@class='side-menu__title'][normalize-space()='Product List']</t>
+  </si>
+  <si>
     <t>ClickAddNewUserButton</t>
   </si>
   <si>
@@ -330,6 +336,30 @@
   </si>
   <si>
     <t>//*[@id="allowDecimal"]</t>
+  </si>
+  <si>
+    <t>ClickAddNewProduct</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Add New Product')]//parent::button</t>
+  </si>
+  <si>
+    <t>Product_Name</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Product Name')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>Product_Unit</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Unit')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>//input[@class='w-full rounded-lg border !border-slate-200 pr-8 text-sm']</t>
   </si>
 </sst>
 </file>
@@ -374,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -701,24 +731,24 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -814,7 +844,7 @@
         <v>69</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>6</v>
@@ -822,46 +852,46 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -935,7 +965,7 @@
         <v>86</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
@@ -943,24 +973,24 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -987,24 +1017,24 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1023,7 +1053,7 @@
         <v>97</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>6</v>
@@ -1031,24 +1061,24 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1086,13 +1116,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -1108,23 +1138,221 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="C68" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="124">
   <si>
     <t/>
   </si>
@@ -356,10 +356,34 @@
     <t>//span[contains(text(),'Unit')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
-    <t>Search</t>
+    <t>Product_Brand</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Brand')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>Product_Category</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Category')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>DropdownSearch</t>
   </si>
   <si>
     <t>//input[@class='w-full rounded-lg border !border-slate-200 pr-8 text-sm']</t>
+  </si>
+  <si>
+    <t>Product_SellingPrice</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Selling Price')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>Product_Description</t>
+  </si>
+  <si>
+    <t>//div[@class='ql-editor ql-blank']</t>
   </si>
 </sst>
 </file>
@@ -404,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1182,46 +1206,46 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -1353,6 +1377,28 @@
         <v>0</v>
       </c>
       <c r="C86" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -383,7 +383,7 @@
     <t>Product_Description</t>
   </si>
   <si>
-    <t>//div[@class='ql-editor ql-blank']</t>
+    <t>(//div[@class='ql-container ql-snow']//child::div)[1]</t>
   </si>
 </sst>
 </file>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="133">
   <si>
     <t/>
   </si>
@@ -137,6 +137,12 @@
     <t>//div[contains(@class,'side-menu__title')][normalize-space()='User List']</t>
   </si>
   <si>
+    <t>ClickRoles</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'side-menu__title')][normalize-space()='Roles']</t>
+  </si>
+  <si>
     <t>ClickContacts</t>
   </si>
   <si>
@@ -173,49 +179,73 @@
     <t>//div[@class='side-menu__title'][normalize-space()='Product List']</t>
   </si>
   <si>
+    <t>ClickAddNewRoleButton</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Add New Role')]//parent::button</t>
+  </si>
+  <si>
+    <t>Role_Name</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Role Name')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>AddPermissionButton</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Save &amp; Add Permissions']</t>
+  </si>
+  <si>
+    <t>UserAllPermissionCheckbox</t>
+  </si>
+  <si>
+    <t>//input[@class="transition-all duration-100 ease-in-out shadow-sm border-slate-200 rounded focus:ring-4 focus:ring-offset-0 focus:ring-primary focus:ring-opacity-20 dark:bg-darkmode-800 dark:border-transparent dark:focus:ring-slate-700 dark:focus:ring-opacity-50 [&amp;[type='radio']]:checked:bg-[#004385] [&amp;[type='radio']]:checked:border-[#004385] [&amp;[type='radio']]:checked:border-opacity-10 [&amp;[type='checkbox']]:checked:bg-[#004385] [&amp;[type='checkbox']]:checked:border-[#004385] [&amp;[type='checkbox']]:checked:border-opacity-10 [&amp;:disabled:not(:checked)]:bg-slate-100 [&amp;:disabled:not(:checked)]:cursor-not-allowed [&amp;:disabled:not(:checked)]:dark:bg-darkmode-800/50 [&amp;:disabled:checked]:opacity-70 [&amp;:disabled:checked]:cursor-not-allowed [&amp;:disabled:checked]:dark:bg-darkmode-800/50 w-4 h-4 sm:w-5 sm:h-5 cursor-pointer"]</t>
+  </si>
+  <si>
     <t>ClickAddNewUserButton</t>
   </si>
   <si>
     <t>//span[contains(.,'Add New User')]//parent::button</t>
   </si>
   <si>
-    <t>AddUser_Name</t>
+    <t>User_Name</t>
   </si>
   <si>
     <t>//span[contains(text(),'Name')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
-    <t>AddUser_Role</t>
+    <t>User_Role</t>
   </si>
   <si>
     <t>//span[contains(text(),'Role')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
-    <t>AddUser_ContactNo</t>
+    <t>User_ContactNo</t>
   </si>
   <si>
     <t>//span[contains(.,'Contact No.')]//parent::label//parent::div//child::input[@type='text']</t>
   </si>
   <si>
-    <t>AddUser_Email</t>
+    <t>User_Email</t>
   </si>
   <si>
     <t>//span[contains(text(),'Email')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
-    <t>AddUser_Password</t>
+    <t>User_Password</t>
   </si>
   <si>
     <t>//span[contains(text(),'Password')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
-    <t>AddUser_ConfirmPassword</t>
+    <t>User_ConfirmPassword</t>
   </si>
   <si>
     <t>//span[contains(text(),'Confirm Password')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
-    <t>AddUser_Address</t>
+    <t>User_Address</t>
   </si>
   <si>
     <t>//span[contains(text(),'Address')]//parent::label//parent::div//child::input</t>
@@ -225,9 +255,6 @@
   </si>
   <si>
     <t>//span[contains(text(),'New Password')]//parent::label//parent::div//child::input</t>
-  </si>
-  <si>
-    <t>User_ConfirmPassword</t>
   </si>
   <si>
     <t>UserPageSizeDropdown</t>
@@ -428,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -766,24 +793,24 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -832,21 +859,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>6</v>
@@ -854,10 +881,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>6</v>
@@ -865,10 +892,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>6</v>
@@ -876,10 +903,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>6</v>
@@ -887,21 +914,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
@@ -909,21 +936,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>6</v>
@@ -931,10 +958,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>6</v>
@@ -942,10 +969,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>6</v>
@@ -953,21 +980,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B49" t="s" s="0">
         <v>82</v>
-      </c>
-      <c r="B49" t="s" s="0">
-        <v>83</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>6</v>
@@ -975,21 +1002,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
@@ -997,10 +1024,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>6</v>
@@ -1008,13 +1035,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -1052,21 +1079,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>6</v>
@@ -1074,21 +1101,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B60" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="B60" t="s" s="0">
-        <v>94</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>6</v>
@@ -1096,21 +1123,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
@@ -1118,13 +1145,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1151,32 +1178,32 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B68" t="s" s="0">
         <v>110</v>
-      </c>
-      <c r="B68" t="s" s="0">
-        <v>111</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
@@ -1184,10 +1211,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B69" t="s" s="0">
         <v>112</v>
-      </c>
-      <c r="B69" t="s" s="0">
-        <v>113</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
@@ -1195,10 +1222,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B70" t="s" s="0">
         <v>114</v>
-      </c>
-      <c r="B70" t="s" s="0">
-        <v>115</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
@@ -1206,10 +1233,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B71" t="s" s="0">
         <v>116</v>
-      </c>
-      <c r="B71" t="s" s="0">
-        <v>117</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
@@ -1217,21 +1244,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>6</v>
@@ -1239,10 +1266,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>6</v>
@@ -1250,68 +1277,68 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -1399,6 +1426,72 @@
         <v>0</v>
       </c>
       <c r="C88" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="145">
   <si>
     <t/>
   </si>
@@ -275,12 +275,6 @@
     <t>//span[contains(text(),'Contact Name')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
-    <t>Contacts_ReferenceID</t>
-  </si>
-  <si>
-    <t>//span[contains(text(),'Rerence ID')]//parent::label//parent::div//child::input</t>
-  </si>
-  <si>
     <t>Contacts_ContactNo1</t>
   </si>
   <si>
@@ -411,6 +405,48 @@
   </si>
   <si>
     <t>(//div[@class='ql-container ql-snow']//child::div)[1]</t>
+  </si>
+  <si>
+    <t>ClickAddNewCity</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Add New City')]//parent::button</t>
+  </si>
+  <si>
+    <t>ClickSettings</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/nav/div[2]/div/div/button</t>
+  </si>
+  <si>
+    <t>ClickBusinessSettings</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/nav/div[2]/div/div/div/ul/li[1]</t>
+  </si>
+  <si>
+    <t>Locations</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[1]/div[2]/button[1]</t>
+  </si>
+  <si>
+    <t>Cities</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[1]/div[2]/button[2]</t>
+  </si>
+  <si>
+    <t>City_Name</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'City Name')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>City_PostalCode</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Postal Code')]//parent::div//child::input</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1118,7 @@
         <v>95</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>6</v>
@@ -1090,24 +1126,24 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -1134,24 +1170,24 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -1170,7 +1206,7 @@
         <v>106</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
@@ -1178,24 +1214,24 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -1233,24 +1269,24 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -1332,90 +1368,90 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="149">
   <si>
     <t/>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>//button[normalize-space()='Reset']</t>
+  </si>
+  <si>
+    <t>ActivateButton</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Activate']</t>
+  </si>
+  <si>
+    <t>DeactivateButton</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Deactivate']</t>
   </si>
   <si>
     <t>Action1</t>
@@ -491,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -642,21 +654,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>6</v>
@@ -664,13 +676,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -686,21 +698,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>6</v>
@@ -708,13 +720,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -730,21 +742,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>6</v>
@@ -752,13 +764,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -840,21 +852,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>6</v>
@@ -862,13 +874,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -895,21 +907,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>6</v>
@@ -917,13 +929,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1005,10 +1017,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>6</v>
@@ -1016,21 +1028,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>6</v>
@@ -1049,10 +1061,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
@@ -1060,13 +1072,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1118,7 +1130,7 @@
         <v>95</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>6</v>
@@ -1126,21 +1138,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>6</v>
@@ -1148,13 +1160,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1170,21 +1182,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
@@ -1192,13 +1204,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1206,7 +1218,7 @@
         <v>106</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
@@ -1214,21 +1226,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
@@ -1236,13 +1248,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1269,21 +1281,21 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>
@@ -1291,13 +1303,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1368,21 +1380,21 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>6</v>
@@ -1390,13 +1402,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1456,24 +1468,24 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -1528,6 +1540,39 @@
         <v>0</v>
       </c>
       <c r="C94" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="160">
   <si>
     <t/>
   </si>
@@ -419,34 +419,67 @@
     <t>(//div[@class='ql-container ql-snow']//child::div)[1]</t>
   </si>
   <si>
+    <t>ClickSettings</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/nav/div[2]/div/div/button</t>
+  </si>
+  <si>
+    <t>ClickBusinessSettings</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/nav/div[2]/div/div/div/ul/li[1]</t>
+  </si>
+  <si>
+    <t>Locations</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[1]/div[2]/button[1]</t>
+  </si>
+  <si>
+    <t>ClickAddNewLocation</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Add New Location')]//parent::button</t>
+  </si>
+  <si>
+    <t>Location_Name</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Location Name')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>Location_Address</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Address')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>Location_City</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'City')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>Location_ContactNo</t>
+  </si>
+  <si>
+    <t>Location_Email</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Email')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>Cities</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[1]/div[2]/button[2]</t>
+  </si>
+  <si>
     <t>ClickAddNewCity</t>
   </si>
   <si>
     <t>//span[contains(.,'Add New City')]//parent::button</t>
-  </si>
-  <si>
-    <t>ClickSettings</t>
-  </si>
-  <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/nav/div[2]/div/div/button</t>
-  </si>
-  <si>
-    <t>ClickBusinessSettings</t>
-  </si>
-  <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/nav/div[2]/div/div/div/ul/li[1]</t>
-  </si>
-  <si>
-    <t>Locations</t>
-  </si>
-  <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[1]/div[2]/button[1]</t>
-  </si>
-  <si>
-    <t>Cities</t>
-  </si>
-  <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[1]/div[2]/button[2]</t>
   </si>
   <si>
     <t>City_Name</t>
@@ -503,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1413,21 +1446,21 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>6</v>
@@ -1435,10 +1468,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>6</v>
@@ -1446,10 +1479,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>6</v>
@@ -1457,10 +1490,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>6</v>
@@ -1468,10 +1501,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>6</v>
@@ -1479,10 +1512,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>6</v>
@@ -1490,79 +1523,79 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
@@ -1573,6 +1606,83 @@
         <v>0</v>
       </c>
       <c r="C97" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="196">
   <si>
     <t/>
   </si>
@@ -122,19 +122,19 @@
     <t>SearchBy_Dropdown</t>
   </si>
   <si>
-    <t>//span[contains(.,'Search by')]//parent::div//child::select</t>
+    <t>//span[contains(text(),'Page size')]/ancestor::div[4]//select</t>
   </si>
   <si>
     <t>SearchBy_SearchBar</t>
   </si>
   <si>
-    <t>//span[contains(.,'Search by')]//parent::div//parent::div//child::input</t>
+    <t>//input[@placeholder='Search...']</t>
   </si>
   <si>
     <t>SearchBy_SearchButton</t>
   </si>
   <si>
-    <t>//span[contains(.,'Search by')]//parent::div//parent::div//child::button</t>
+    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[2]/div/div/div[2]/div[1]/div[1]/div[2]/button</t>
   </si>
   <si>
     <t>ClickUser</t>
@@ -314,6 +314,36 @@
     <t>Contacts_Email</t>
   </si>
   <si>
+    <t>View_customerName</t>
+  </si>
+  <si>
+    <t>View_customerContactNo1</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Contact No.1')]//parent::label//parent::div//child::input[@type='text']</t>
+  </si>
+  <si>
+    <t>View_customerContactNo2</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Contact No.2')]//parent::label//parent::div//child::input[@type='text']</t>
+  </si>
+  <si>
+    <t>View_customerAddress</t>
+  </si>
+  <si>
+    <t>View_customerCity</t>
+  </si>
+  <si>
+    <t>View_customerEmail</t>
+  </si>
+  <si>
+    <t>View_RefID</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Contact ID')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
     <t>ClickAddNewCategory</t>
   </si>
   <si>
@@ -404,7 +434,7 @@
     <t>DropdownSearch</t>
   </si>
   <si>
-    <t>//input[@class='w-full rounded-lg border !border-slate-200 pr-8 text-sm']</t>
+    <t>(//input[@placeholder='Search...'])[2]</t>
   </si>
   <si>
     <t>Product_SellingPrice</t>
@@ -419,22 +449,61 @@
     <t>(//div[@class='ql-container ql-snow']//child::div)[1]</t>
   </si>
   <si>
+    <t>view_productName</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Product Name')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>view_productUnit</t>
+  </si>
+  <si>
+    <t>view_productBrand</t>
+  </si>
+  <si>
+    <t>view_productCategory</t>
+  </si>
+  <si>
+    <t>view_productSellingPrice</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Selling Price')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>view_productDescription</t>
+  </si>
+  <si>
+    <t>//label[contains(text(),'Description')]//parent::div//child::div[@class='ql-editor']//child::p</t>
+  </si>
+  <si>
+    <t>view_productSKU</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'SKU')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
     <t>ClickSettings</t>
   </si>
   <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/nav/div[2]/div/div/button</t>
+    <t>(//div[@class='p-3 fixed bottom-0 left-0 w-[260px] border-gray-300 ']//child::button)[last()]</t>
   </si>
   <si>
     <t>ClickBusinessSettings</t>
   </si>
   <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/nav/div[2]/div/div/div/ul/li[1]</t>
+    <t>//li[normalize-space()='Business Settings']</t>
+  </si>
+  <si>
+    <t>ClickOrderSettings</t>
+  </si>
+  <si>
+    <t>//li[normalize-space()='Order Settings']</t>
   </si>
   <si>
     <t>Locations</t>
   </si>
   <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[1]/div[2]/button[1]</t>
+    <t>//button[normalize-space()='Locations']</t>
   </si>
   <si>
     <t>ClickAddNewLocation</t>
@@ -473,7 +542,7 @@
     <t>Cities</t>
   </si>
   <si>
-    <t>//*[@id="root"]/div[1]/div/div[2]/div/div[2]/div/div[1]/div[2]/button[2]</t>
+    <t>//button[normalize-space()='Cities']</t>
   </si>
   <si>
     <t>ClickAddNewCity</t>
@@ -492,6 +561,45 @@
   </si>
   <si>
     <t>//label[contains(.,'Postal Code')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>Save_cityID</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'City ID')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Sources']</t>
+  </si>
+  <si>
+    <t>ClickAddNewSource</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Add New Source')]//parent::button</t>
+  </si>
+  <si>
+    <t>Source_Name</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Source Name')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>Source_Icon</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Source Icon')]//parent::div//child::button</t>
+  </si>
+  <si>
+    <t>OtherIcon</t>
+  </si>
+  <si>
+    <t>//li[contains(text(),'Other')]</t>
+  </si>
+  <si>
+    <t>Source_Remark</t>
   </si>
 </sst>
 </file>
@@ -536,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1193,21 +1301,21 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>6</v>
@@ -1215,10 +1323,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
@@ -1226,10 +1334,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
@@ -1237,21 +1345,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
@@ -1270,32 +1378,32 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
@@ -1303,10 +1411,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
@@ -1314,21 +1422,21 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B72" t="s" s="0">
         <v>117</v>
-      </c>
-      <c r="B72" t="s" s="0">
-        <v>118</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>
@@ -1336,21 +1444,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>6</v>
@@ -1358,21 +1466,21 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>6</v>
@@ -1380,10 +1488,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>6</v>
@@ -1391,10 +1499,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>6</v>
@@ -1402,10 +1510,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>6</v>
@@ -1413,21 +1521,21 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>6</v>
@@ -1435,24 +1543,24 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
@@ -1526,7 +1634,7 @@
         <v>147</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>6</v>
@@ -1534,10 +1642,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>6</v>
@@ -1545,10 +1653,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>6</v>
@@ -1556,10 +1664,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>6</v>
@@ -1567,10 +1675,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>6</v>
@@ -1578,10 +1686,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>6</v>
@@ -1589,24 +1697,24 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
@@ -1622,24 +1730,24 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
@@ -1655,34 +1763,298 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="C104" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s" s="0">
         <v>0</v>
       </c>
     </row>
